--- a/Data/FBA Rates.xlsx
+++ b/Data/FBA Rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283D3E0A-CDEE-4A8C-8790-252E24390769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E7069A-BFC6-4F6D-957A-6FF1F2209E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="FBA Locations" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Accessorials!$A$1:$F$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FBA Locations'!$A$1:$I$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">P2P!$A$1:$L$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">P2P!$A$1:$O$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="179">
   <si>
     <t>Type</t>
   </si>
@@ -568,6 +568,21 @@
   </si>
   <si>
     <t>else cold</t>
+  </si>
+  <si>
+    <t>OIH</t>
+  </si>
+  <si>
+    <t>DIH</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Carrier SCAC</t>
+  </si>
+  <si>
+    <t>XYZ</t>
   </si>
 </sst>
 </file>
@@ -668,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -721,7 +736,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,7 +1083,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2101,616 +2125,603 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DCBAC0-BF3E-418B-AE45-66CABC3885D2}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="11"/>
+    <col min="3" max="3" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G2" s="22">
         <v>50000</v>
       </c>
-      <c r="G2" s="11">
+      <c r="I2" s="22">
         <v>2800</v>
       </c>
-      <c r="H2" s="11">
-        <f>(F2/84)+G2</f>
+      <c r="K2" s="22">
+        <f>(G2/84)+I2</f>
         <v>3395.2380952380954</v>
       </c>
-      <c r="I2" s="11">
-        <f>H2/55</f>
+      <c r="L2" s="22">
+        <f>K2/55</f>
         <v>61.731601731601735</v>
       </c>
-      <c r="J2" s="11">
+      <c r="M2" s="22">
         <v>1800</v>
       </c>
-      <c r="K2" s="13">
+      <c r="N2" s="23">
         <v>45664</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="O2" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="25">
         <v>50000</v>
       </c>
-      <c r="G3" s="12">
+      <c r="H3" s="25"/>
+      <c r="I3" s="25">
         <v>2900</v>
       </c>
-      <c r="H3" s="11">
-        <f>(F3/84)+G3</f>
+      <c r="J3" s="25"/>
+      <c r="K3" s="22">
+        <f>(G3/84)+I3</f>
         <v>3495.2380952380954</v>
       </c>
-      <c r="I3" s="11">
-        <f>H3/55</f>
+      <c r="L3" s="22">
+        <f>K3/55</f>
         <v>63.549783549783555</v>
       </c>
-      <c r="J3" s="12">
+      <c r="M3" s="25">
         <v>1500</v>
       </c>
-      <c r="K3" s="13">
+      <c r="N3" s="23">
         <v>45664</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="O3" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G4" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H4" s="11">
-        <f t="shared" ref="H4:H15" si="0">(F4/84)+G4</f>
-        <v>3595.2380952380954</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="L4" s="22">
         <v>70.849999999999994</v>
       </c>
-      <c r="J4" s="11">
-        <v>1200</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="N4" s="23">
         <v>45664</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="O4" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="12">
-        <v>50000</v>
-      </c>
-      <c r="G5" s="12">
-        <v>3100</v>
-      </c>
-      <c r="H5" s="11">
-        <f t="shared" si="0"/>
-        <v>3695.2380952380954</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="L5" s="11">
         <v>90.5</v>
       </c>
-      <c r="J5" s="11">
-        <v>900</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="N5" s="13">
         <v>45664</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="O5" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="11">
         <v>50000</v>
       </c>
-      <c r="G6" s="11">
+      <c r="I6" s="11">
         <v>3200</v>
       </c>
-      <c r="H6" s="11">
-        <f t="shared" si="0"/>
+      <c r="K6" s="11">
+        <f>(G6/84)+I6</f>
         <v>3795.2380952380954</v>
       </c>
-      <c r="I6" s="11">
+      <c r="L6" s="11">
         <v>100</v>
       </c>
-      <c r="J6" s="12">
+      <c r="M6" s="12">
         <v>600</v>
       </c>
-      <c r="K6" s="13">
+      <c r="N6" s="13">
         <v>45664</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="12">
         <v>50000</v>
       </c>
-      <c r="G7" s="12">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12">
         <v>3300</v>
       </c>
-      <c r="H7" s="11">
-        <f t="shared" si="0"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11">
+        <f>(G7/84)+I7</f>
         <v>3895.2380952380954</v>
       </c>
-      <c r="I7" s="11">
+      <c r="L7" s="11">
         <v>200</v>
       </c>
-      <c r="J7" s="11">
+      <c r="M7" s="11">
         <v>300</v>
       </c>
-      <c r="K7" s="13">
+      <c r="N7" s="13">
         <v>45664</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="11">
+      <c r="G8" s="11">
         <v>50000</v>
       </c>
-      <c r="G8" s="11">
+      <c r="I8" s="11">
         <v>3400</v>
       </c>
-      <c r="H8" s="11">
-        <f t="shared" si="0"/>
+      <c r="K8" s="11">
+        <f>(G8/84)+I8</f>
         <v>3995.2380952380954</v>
       </c>
-      <c r="I8" s="11">
+      <c r="L8" s="11">
         <v>300</v>
       </c>
-      <c r="J8" s="11">
+      <c r="M8" s="11">
         <v>900</v>
       </c>
-      <c r="K8" s="13">
+      <c r="N8" s="13">
         <v>45664</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="O8" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G9" s="12">
         <v>50000</v>
       </c>
-      <c r="G9" s="12">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12">
         <v>3500</v>
       </c>
-      <c r="H9" s="11">
-        <f t="shared" si="0"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11">
+        <f>(G9/84)+I9</f>
         <v>4095.2380952380954</v>
       </c>
-      <c r="I9" s="11">
+      <c r="L9" s="11">
         <v>400</v>
       </c>
-      <c r="J9" s="11">
+      <c r="M9" s="11">
         <v>1800</v>
       </c>
-      <c r="K9" s="13">
+      <c r="N9" s="13">
         <v>45664</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="11">
+      <c r="G10" s="11">
         <v>50000</v>
       </c>
-      <c r="G10" s="11">
+      <c r="I10" s="11">
         <v>3600</v>
       </c>
-      <c r="H10" s="11">
-        <f t="shared" si="0"/>
+      <c r="K10" s="11">
+        <f>(G10/84)+I10</f>
         <v>4195.2380952380954</v>
       </c>
-      <c r="I10" s="11">
+      <c r="L10" s="11">
         <v>500</v>
       </c>
-      <c r="J10" s="12">
+      <c r="M10" s="12">
         <v>1500</v>
       </c>
-      <c r="K10" s="13">
+      <c r="N10" s="13">
         <v>45664</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="O10" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="12">
-        <v>50000</v>
-      </c>
-      <c r="G11" s="12">
-        <v>3700</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="0"/>
-        <v>4295.2380952380954</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="L11" s="11">
         <v>150</v>
       </c>
-      <c r="J11" s="11">
-        <v>1200</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="N11" s="13">
         <v>45664</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="O11" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G12" s="11">
-        <v>3800</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="0"/>
-        <v>4395.2380952380954</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="L12" s="11">
         <v>250</v>
       </c>
-      <c r="J12" s="11">
-        <v>900</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="N12" s="13">
         <v>45664</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="O12" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="12">
-        <v>50000</v>
-      </c>
-      <c r="G13" s="12">
-        <v>3900</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="0"/>
-        <v>4495.2380952380954</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="L13" s="11">
         <v>350</v>
       </c>
-      <c r="J13" s="12">
-        <v>600</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="M13" s="12"/>
+      <c r="N13" s="13">
         <v>45664</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="O13" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G14" s="11">
-        <v>4000</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" si="0"/>
-        <v>4595.2380952380954</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="L14" s="11">
         <v>450</v>
       </c>
-      <c r="J14" s="11">
-        <v>300</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="N14" s="13">
         <v>45664</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="O14" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="12">
-        <v>50000</v>
-      </c>
-      <c r="G15" s="12">
-        <v>4100</v>
-      </c>
-      <c r="H15" s="11">
-        <f t="shared" si="0"/>
-        <v>4695.2380952380954</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="L15" s="11">
         <v>550</v>
       </c>
-      <c r="J15" s="11">
-        <v>1200</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="N15" s="13">
         <v>45664</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="O15" s="13" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L15" xr:uid="{17DCBAC0-BF3E-418B-AE45-66CABC3885D2}"/>
+  <autoFilter ref="A1:O15" xr:uid="{17DCBAC0-BF3E-418B-AE45-66CABC3885D2}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2721,7 +2732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35DF090-9BCB-459F-96DE-0C2E2C4CE155}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3202,8 +3213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F23FDF5-674A-4B32-8AB5-CDA92337D865}">
   <dimension ref="A3:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3263,7 +3274,7 @@
       <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" t="s">
         <v>171</v>
       </c>
     </row>

--- a/Data/FBA Rates.xlsx
+++ b/Data/FBA Rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E7069A-BFC6-4F6D-957A-6FF1F2209E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7474F51B-0341-473A-AD41-5ED798797EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="FBA Locations" sheetId="6" r:id="rId1"/>
@@ -683,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -735,16 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2127,7 +2117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DCBAC0-BF3E-418B-AE45-66CABC3885D2}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2198,120 +2188,120 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="11">
         <v>50000</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="11">
         <v>2800</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="11">
         <f>(G2/84)+I2</f>
         <v>3395.2380952380954</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="11">
         <f>K2/55</f>
         <v>61.731601731601735</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="11">
         <v>1800</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="13">
         <v>45664</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="12">
         <v>50000</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12">
         <v>2900</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="22">
+      <c r="J3" s="12"/>
+      <c r="K3" s="11">
         <f>(G3/84)+I3</f>
         <v>3495.2380952380954</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="11">
         <f>K3/55</f>
         <v>63.549783549783555</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="12">
         <v>1500</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="13">
         <v>45664</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="11">
         <v>70.849999999999994</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="13">
         <v>45664</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="13" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3076,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6834A2B-CE9C-44A7-99F9-BCB2DDA672DE}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3588,15 +3578,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054343BD0DD31AA4297A2EF610014A1BF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f83d6b63ac4a176ebf43227be297d219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b2f27841-1f59-4d8b-a7d8-14fb94542c19" xmlns:ns4="2f06b1f5-604c-4482-a64c-c80cee61fd3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b05693fd1cbd9bcfb6d15831f4adf40f" ns3:_="" ns4:_="">
     <xsd:import namespace="b2f27841-1f59-4d8b-a7d8-14fb94542c19"/>
@@ -3817,6 +3798,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3826,14 +3816,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE1D8D6-1CF0-41FD-8D99-059178BD00EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3848,6 +3830,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/FBA Rates.xlsx
+++ b/Data/FBA Rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C43A2C-3633-429A-9319-F0727FE07F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4662A1-CE4D-4009-ADC6-D773718DB62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="799" activeTab="1" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="799" activeTab="2" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="FBA Locations (your original)" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10125" uniqueCount="1858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10133" uniqueCount="1861">
   <si>
     <t>Type</t>
   </si>
@@ -5620,6 +5620,15 @@
   </si>
   <si>
     <t>Team Global</t>
+  </si>
+  <si>
+    <t>inr</t>
+  </si>
+  <si>
+    <t>PALLETIZATION</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION</t>
   </si>
 </sst>
 </file>
@@ -7125,8 +7134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63453C1D-051F-4490-B686-739BEFBFD72E}">
   <dimension ref="A1:M1211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53196,11 +53205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DCBAC0-BF3E-418B-AE45-66CABC3885D2}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53804,10 +53813,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35DF090-9BCB-459F-96DE-0C2E2C4CE155}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53818,9 +53827,10 @@
     <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -53840,7 +53850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -53860,7 +53870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -53871,7 +53881,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -53880,7 +53890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -53900,7 +53910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -53920,7 +53930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -53931,7 +53941,7 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -53940,7 +53950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -53960,7 +53970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -53980,7 +53990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -53999,8 +54009,17 @@
       <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9">
+        <v>4500</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -54019,8 +54038,17 @@
       <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -54039,8 +54067,17 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>1859</v>
+      </c>
+      <c r="L11">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -54059,8 +54096,17 @@
       <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>1860</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -54080,7 +54126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -54100,7 +54146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -54120,7 +54166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -54151,7 +54197,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54284,23 +54330,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b2f27841-1f59-4d8b-a7d8-14fb94542c19" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054343BD0DD31AA4297A2EF610014A1BF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f83d6b63ac4a176ebf43227be297d219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b2f27841-1f59-4d8b-a7d8-14fb94542c19" xmlns:ns4="2f06b1f5-604c-4482-a64c-c80cee61fd3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b05693fd1cbd9bcfb6d15831f4adf40f" ns3:_="" ns4:_="">
     <xsd:import namespace="b2f27841-1f59-4d8b-a7d8-14fb94542c19"/>
@@ -54521,32 +54550,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846BEFA8-E503-43F6-8522-0715596E6C88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b2f27841-1f59-4d8b-a7d8-14fb94542c19"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2f06b1f5-604c-4482-a64c-c80cee61fd3a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b2f27841-1f59-4d8b-a7d8-14fb94542c19" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE1D8D6-1CF0-41FD-8D99-059178BD00EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54563,4 +54584,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846BEFA8-E503-43F6-8522-0715596E6C88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b2f27841-1f59-4d8b-a7d8-14fb94542c19"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2f06b1f5-604c-4482-a64c-c80cee61fd3a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/FBA Rates.xlsx
+++ b/Data/FBA Rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4662A1-CE4D-4009-ADC6-D773718DB62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFCA649-55DD-4724-9961-E9D95196EC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="799" activeTab="2" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Accessorials!$A$1:$F$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FBA Locations'!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FBA Locations (your original)'!$A$1:$I$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">P2P!$A$1:$O$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">P2P!$A$1:$P$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10133" uniqueCount="1861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10134" uniqueCount="1862">
   <si>
     <t>Type</t>
   </si>
@@ -5629,6 +5629,9 @@
   </si>
   <si>
     <t>DOCUMENTATION</t>
+  </si>
+  <si>
+    <t>Loadability</t>
   </si>
 </sst>
 </file>
@@ -53203,13 +53206,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DCBAC0-BF3E-418B-AE45-66CABC3885D2}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53224,15 +53227,16 @@
     <col min="8" max="8" width="6.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="5"/>
+    <col min="11" max="11" width="25.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>62</v>
       </c>
@@ -53264,22 +53268,25 @@
         <v>125</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
+        <v>1861</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
@@ -53304,25 +53311,28 @@
       <c r="I2" s="5">
         <v>2800</v>
       </c>
-      <c r="K2" s="16">
-        <f>(G2/84)+I2</f>
-        <v>3395.2380952380954</v>
+      <c r="K2" s="5">
+        <v>1800</v>
       </c>
       <c r="L2" s="16">
-        <f>K2/55</f>
-        <v>61.731601731601735</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1800</v>
-      </c>
-      <c r="N2" s="7">
+        <f>(G2/84)+I2+K2</f>
+        <v>5195.2380952380954</v>
+      </c>
+      <c r="M2" s="16">
+        <v>55</v>
+      </c>
+      <c r="N2" s="16">
+        <f>L2/M2</f>
+        <v>94.458874458874462</v>
+      </c>
+      <c r="O2" s="7">
         <v>45664</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>63</v>
       </c>
@@ -53349,25 +53359,28 @@
         <v>2900</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="16">
-        <f>(G3/84)+I3</f>
-        <v>3495.2380952380954</v>
+      <c r="K3" s="6">
+        <v>1500</v>
       </c>
       <c r="L3" s="16">
-        <f>K3/55</f>
-        <v>63.549783549783555</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1500</v>
-      </c>
-      <c r="N3" s="7">
+        <f>(G3/84)+I3+K3</f>
+        <v>4995.2380952380954</v>
+      </c>
+      <c r="M3" s="16">
+        <v>55</v>
+      </c>
+      <c r="N3" s="16">
+        <f>L3/M3</f>
+        <v>90.822510822510822</v>
+      </c>
+      <c r="O3" s="7">
         <v>45664</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>64</v>
       </c>
@@ -53386,18 +53399,19 @@
       <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16">
         <v>70.849999999999994</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <v>45664</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -53420,18 +53434,19 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16">
         <v>90.5</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>45664</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
@@ -53456,24 +53471,28 @@
       <c r="I6" s="5">
         <v>3200</v>
       </c>
-      <c r="K6" s="16">
-        <f>(G6/84)+I6</f>
-        <v>3795.2380952380954</v>
+      <c r="K6" s="6">
+        <v>600</v>
       </c>
       <c r="L6" s="16">
-        <v>100</v>
-      </c>
-      <c r="M6" s="6">
-        <v>600</v>
-      </c>
-      <c r="N6" s="7">
+        <f>(G6/84)+I6+K6</f>
+        <v>4395.2380952380954</v>
+      </c>
+      <c r="M6" s="16">
+        <v>55</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" ref="N6:N10" si="0">L6/M6</f>
+        <v>79.913419913419915</v>
+      </c>
+      <c r="O6" s="7">
         <v>45664</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -53500,24 +53519,28 @@
         <v>3300</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="16">
-        <f>(G7/84)+I7</f>
-        <v>3895.2380952380954</v>
+      <c r="K7" s="5">
+        <v>300</v>
       </c>
       <c r="L7" s="16">
-        <v>200</v>
-      </c>
-      <c r="M7" s="5">
-        <v>300</v>
-      </c>
-      <c r="N7" s="7">
+        <f t="shared" ref="L7:L10" si="1">(G7/84)+I7+K7</f>
+        <v>4195.2380952380954</v>
+      </c>
+      <c r="M7" s="16">
+        <v>55</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="0"/>
+        <v>76.277056277056275</v>
+      </c>
+      <c r="O7" s="7">
         <v>45664</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>63</v>
       </c>
@@ -53542,24 +53565,28 @@
       <c r="I8" s="5">
         <v>3400</v>
       </c>
-      <c r="K8" s="16">
-        <f>(G8/84)+I8</f>
-        <v>3995.2380952380954</v>
+      <c r="K8" s="5">
+        <v>900</v>
       </c>
       <c r="L8" s="16">
-        <v>300</v>
-      </c>
-      <c r="M8" s="5">
-        <v>900</v>
-      </c>
-      <c r="N8" s="7">
+        <f t="shared" si="1"/>
+        <v>4895.2380952380954</v>
+      </c>
+      <c r="M8" s="16">
+        <v>55</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="0"/>
+        <v>89.004329004329009</v>
+      </c>
+      <c r="O8" s="7">
         <v>45664</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -53586,24 +53613,28 @@
         <v>3500</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="16">
-        <f>(G9/84)+I9</f>
-        <v>4095.2380952380954</v>
+      <c r="K9" s="5">
+        <v>1800</v>
       </c>
       <c r="L9" s="16">
-        <v>400</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1800</v>
-      </c>
-      <c r="N9" s="7">
+        <f t="shared" si="1"/>
+        <v>5895.2380952380954</v>
+      </c>
+      <c r="M9" s="16">
+        <v>55</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" si="0"/>
+        <v>107.1861471861472</v>
+      </c>
+      <c r="O9" s="7">
         <v>45664</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
@@ -53628,24 +53659,28 @@
       <c r="I10" s="5">
         <v>3600</v>
       </c>
-      <c r="K10" s="16">
-        <f>(G10/84)+I10</f>
-        <v>4195.2380952380954</v>
+      <c r="K10" s="6">
+        <v>1500</v>
       </c>
       <c r="L10" s="16">
-        <v>500</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1500</v>
-      </c>
-      <c r="N10" s="7">
+        <f t="shared" si="1"/>
+        <v>5695.2380952380954</v>
+      </c>
+      <c r="M10" s="16">
+        <v>55</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="0"/>
+        <v>103.54978354978356</v>
+      </c>
+      <c r="O10" s="7">
         <v>45664</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
@@ -53668,17 +53703,17 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="L11" s="16">
+      <c r="N11" s="16">
         <v>150</v>
       </c>
-      <c r="N11" s="7">
+      <c r="O11" s="7">
         <v>45664</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -53697,17 +53732,17 @@
       <c r="F12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="16">
+      <c r="N12" s="16">
         <v>250</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <v>45664</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
@@ -53730,18 +53765,18 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="L13" s="5">
+      <c r="K13" s="6"/>
+      <c r="N13" s="5">
         <v>350</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <v>45664</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
@@ -53760,17 +53795,17 @@
       <c r="F14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="5">
+      <c r="N14" s="5">
         <v>450</v>
       </c>
-      <c r="N14" s="7">
+      <c r="O14" s="7">
         <v>45664</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -53793,18 +53828,18 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="L15" s="5">
+      <c r="N15" s="5">
         <v>550</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <v>45664</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O15" xr:uid="{17DCBAC0-BF3E-418B-AE45-66CABC3885D2}"/>
+  <autoFilter ref="A1:P15" xr:uid="{17DCBAC0-BF3E-418B-AE45-66CABC3885D2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -54330,6 +54365,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054343BD0DD31AA4297A2EF610014A1BF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f83d6b63ac4a176ebf43227be297d219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b2f27841-1f59-4d8b-a7d8-14fb94542c19" xmlns:ns4="2f06b1f5-604c-4482-a64c-c80cee61fd3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b05693fd1cbd9bcfb6d15831f4adf40f" ns3:_="" ns4:_="">
     <xsd:import namespace="b2f27841-1f59-4d8b-a7d8-14fb94542c19"/>
@@ -54550,15 +54594,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -54568,6 +54603,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE1D8D6-1CF0-41FD-8D99-059178BD00EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54582,14 +54625,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/FBA Rates.xlsx
+++ b/Data/FBA Rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87186EEC-B82B-4B62-8AB3-B0A02D9D510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F059242-86E0-418E-9D41-B89166CE8ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="799" activeTab="1" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Accessorials!$A$1:$E$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FBA Locations'!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FBA Locations'!$A$1:$N$1211</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FBA Locations (your original)'!$A$1:$I$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">P2P!$A$1:$Q$15</definedName>
   </definedNames>
@@ -7135,7 +7135,7 @@
   <dimension ref="A1:N1211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56828,7 +56828,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{63453C1D-051F-4490-B686-739BEFBFD72E}"/>
+  <autoFilter ref="A1:N1211" xr:uid="{63453C1D-051F-4490-B686-739BEFBFD72E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -56839,10 +56839,10 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57527,7 +57527,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58030,6 +58030,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b2f27841-1f59-4d8b-a7d8-14fb94542c19" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054343BD0DD31AA4297A2EF610014A1BF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f83d6b63ac4a176ebf43227be297d219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b2f27841-1f59-4d8b-a7d8-14fb94542c19" xmlns:ns4="2f06b1f5-604c-4482-a64c-c80cee61fd3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b05693fd1cbd9bcfb6d15831f4adf40f" ns3:_="" ns4:_="">
     <xsd:import namespace="b2f27841-1f59-4d8b-a7d8-14fb94542c19"/>
@@ -58250,38 +58267,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b2f27841-1f59-4d8b-a7d8-14fb94542c19" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE1D8D6-1CF0-41FD-8D99-059178BD00EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b2f27841-1f59-4d8b-a7d8-14fb94542c19"/>
-    <ds:schemaRef ds:uri="2f06b1f5-604c-4482-a64c-c80cee61fd3a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -58304,9 +58293,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE1D8D6-1CF0-41FD-8D99-059178BD00EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b2f27841-1f59-4d8b-a7d8-14fb94542c19"/>
+    <ds:schemaRef ds:uri="2f06b1f5-604c-4482-a64c-c80cee61fd3a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/FBA Rates.xlsx
+++ b/Data/FBA Rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11D728E-B754-44F0-8FFD-C431A07A9969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAEED3A-98FD-42EC-BF9A-AA7816DF69D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="799" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
   </bookViews>
@@ -6114,7 +6114,7 @@
   <dimension ref="A1:P1211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59475,7 +59475,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/FBA Rates.xlsx
+++ b/Data/FBA Rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAEED3A-98FD-42EC-BF9A-AA7816DF69D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B590B7-3D1A-4F23-9BDF-8D110FDC67CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="799" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
   </bookViews>
@@ -5677,7 +5677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5702,6 +5702,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5715,7 +5721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5776,6 +5782,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6114,7 +6129,7 @@
   <dimension ref="A1:P1211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6668,47 +6683,47 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
         <v>29483</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="24" t="s">
         <v>1845</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="23">
         <v>30567</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="23" t="s">
         <v>1316</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="23" t="s">
         <v>1814</v>
       </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="J13" s="24">
+        <v>0</v>
+      </c>
+      <c r="K13" s="24">
+        <v>0</v>
+      </c>
+      <c r="L13" s="24">
         <v>40</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>1847</v>
-      </c>
-      <c r="P13" s="10" t="s">
+      <c r="O13" s="25" t="s">
+        <v>1847</v>
+      </c>
+      <c r="P13" s="25" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -42316,16 +42331,16 @@
     </row>
     <row r="823" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A823" s="11">
-        <v>7201</v>
+        <v>90220</v>
       </c>
       <c r="B823" s="12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C823" s="12" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D823" s="12" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="E823" s="12" t="s">
         <v>22</v>
@@ -59475,7 +59490,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60663,15 +60678,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054343BD0DD31AA4297A2EF610014A1BF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f83d6b63ac4a176ebf43227be297d219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b2f27841-1f59-4d8b-a7d8-14fb94542c19" xmlns:ns4="2f06b1f5-604c-4482-a64c-c80cee61fd3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b05693fd1cbd9bcfb6d15831f4adf40f" ns3:_="" ns4:_="">
     <xsd:import namespace="b2f27841-1f59-4d8b-a7d8-14fb94542c19"/>
@@ -60892,6 +60898,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -60901,14 +60916,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE1D8D6-1CF0-41FD-8D99-059178BD00EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60923,6 +60930,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/FBA Rates.xlsx
+++ b/Data/FBA Rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B590B7-3D1A-4F23-9BDF-8D110FDC67CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EBD4F7-A93D-478E-BB67-7721F6198A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="799" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
   </bookViews>
@@ -6129,7 +6129,7 @@
   <dimension ref="A1:P1211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60678,6 +60678,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054343BD0DD31AA4297A2EF610014A1BF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f83d6b63ac4a176ebf43227be297d219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b2f27841-1f59-4d8b-a7d8-14fb94542c19" xmlns:ns4="2f06b1f5-604c-4482-a64c-c80cee61fd3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b05693fd1cbd9bcfb6d15831f4adf40f" ns3:_="" ns4:_="">
     <xsd:import namespace="b2f27841-1f59-4d8b-a7d8-14fb94542c19"/>
@@ -60898,15 +60907,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -60916,6 +60916,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE1D8D6-1CF0-41FD-8D99-059178BD00EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60930,14 +60938,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/FBA Rates.xlsx
+++ b/Data/FBA Rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F151B97-D247-48B4-B580-ED38754D2FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8080C200-ED9F-4835-B9E1-890F759AACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="799" xr2:uid="{2A934A6A-F337-4BE5-84D4-604AD1A76B7C}"/>
   </bookViews>
@@ -6123,7 +6123,7 @@
   <dimension ref="A1:P1211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -63097,7 +63097,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12"/>
@@ -64209,6 +64209,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054343BD0DD31AA4297A2EF610014A1BF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f83d6b63ac4a176ebf43227be297d219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b2f27841-1f59-4d8b-a7d8-14fb94542c19" xmlns:ns4="2f06b1f5-604c-4482-a64c-c80cee61fd3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b05693fd1cbd9bcfb6d15831f4adf40f" ns3:_="" ns4:_="">
     <xsd:import namespace="b2f27841-1f59-4d8b-a7d8-14fb94542c19"/>
@@ -64429,15 +64438,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -64447,6 +64447,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE1D8D6-1CF0-41FD-8D99-059178BD00EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64461,14 +64469,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67B4D3F6-F8FA-4C9E-92B9-9E9ABA11DC61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
